--- a/output/varianceData/chess50/chess.xlsx
+++ b/output/varianceData/chess50/chess.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/home/vdefontnouvelle/Desktop/thesis/helmholtz/output/varianceData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vdefont/Desktop/Spring 2019/thesis/helmholtz/output/varianceData/chess50/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A877E9-6D74-414E-9806-213A869D18C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="5980" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -359,11 +358,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -382,10 +381,10 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
